--- a/CityPedestrianCountingSchemes.xlsx
+++ b/CityPedestrianCountingSchemes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/gy17m2a_leeds_ac_uk/Documents/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gy17m2a\OneDrive - University of Leeds\Project\Footfall\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="139">
   <si>
     <t>City</t>
   </si>
@@ -434,6 +434,21 @@
   </si>
   <si>
     <t>Nov 2019 - August 2022 (almost 3 years)</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>2014-2022</t>
+  </si>
+  <si>
+    <t>Can download weekly csvs from: https://datamillnorth.org/dataset/leeds-city-centre-footfall-data</t>
+  </si>
+  <si>
+    <t>7 (or 10?)</t>
+  </si>
+  <si>
+    <t>Camera</t>
   </si>
 </sst>
 </file>
@@ -543,7 +558,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -559,12 +573,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -572,6 +580,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -861,16 +878,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.54296875" style="2" customWidth="1"/>
     <col min="5" max="5" width="93" style="2" customWidth="1"/>
     <col min="6" max="6" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="125" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -910,7 +927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -921,7 +938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -935,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
@@ -943,7 +960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -954,7 +971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -971,7 +988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -985,7 +1002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -999,7 +1016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1013,7 +1030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1030,8 +1047,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1044,107 +1061,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV16"/>
+  <dimension ref="A1:AV17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.140625" style="17" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="17" customWidth="1"/>
-    <col min="6" max="7" width="25.140625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="2" width="20.1796875" style="16" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" style="16" customWidth="1"/>
+    <col min="6" max="7" width="25.1796875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="37.54296875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="31.453125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:48" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:48" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:48" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:48" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>118</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>110</v>
+      <c r="C3" s="5">
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>70</v>
@@ -1153,16 +1163,21 @@
         <v>100</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:48" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>117</v>
+      <c r="J3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>120</v>
@@ -1174,266 +1189,230 @@
         <v>77</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>70</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:48" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:48" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>125</v>
+      <c r="H5" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:48" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="6">
-        <v>13</v>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:48" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="7">
+        <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>70</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>57</v>
+        <v>125</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-    </row>
-    <row r="7" spans="1:48" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="14" t="s">
+    </row>
+    <row r="7" spans="1:48" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="6">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>98</v>
+      <c r="E7" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+    </row>
+    <row r="8" spans="1:48" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-    </row>
-    <row r="8" spans="1:48" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+    </row>
+    <row r="9" spans="1:48" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="15"/>
-      <c r="AS8" s="15"/>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="15"/>
-    </row>
-    <row r="9" spans="1:48" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5">
-        <v>65</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>70</v>
@@ -1442,209 +1421,275 @@
         <v>70</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+    </row>
+    <row r="10" spans="1:48" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:48" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:48" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:48" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C12" s="8">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H12" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:48" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="5" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:48" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C13" s="5">
         <v>40</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:48" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:48" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:48" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="7">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:48" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="H15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:48" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="16" t="s">
+    <row r="16" spans="1:48" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:48" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:10" ht="50" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7" t="s">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H13" r:id="rId1"/>
-    <hyperlink ref="H12" r:id="rId2" location="api=cctv&amp;operation=get-get-detection-summaries"/>
-    <hyperlink ref="H10" r:id="rId3"/>
+    <hyperlink ref="H14" r:id="rId1"/>
+    <hyperlink ref="H13" r:id="rId2" location="api=cctv&amp;operation=get-get-detection-summaries"/>
+    <hyperlink ref="H11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1659,9 +1704,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1682,13 +1727,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1709,14 +1754,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.140625" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" customWidth="1"/>
-    <col min="3" max="3" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.1796875" customWidth="1"/>
+    <col min="2" max="2" width="52.26953125" customWidth="1"/>
+    <col min="3" max="3" width="143.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1727,7 +1772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -1735,7 +1780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1746,7 +1791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1757,7 +1802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1781,9 +1826,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1791,7 +1836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1802,9 +1847,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2037,27 +2085,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57578DC1-B9AA-4873-A9F4-9A5957A54955}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB482118-E0ED-4E9E-8B60-33F39924365C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="613d7967-9229-40f2-b742-bca4e652e680"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e8dfdbb-eb1c-41e2-bbf5-9f5a6820c125"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2082,9 +2118,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB482118-E0ED-4E9E-8B60-33F39924365C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57578DC1-B9AA-4873-A9F4-9A5957A54955}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e8dfdbb-eb1c-41e2-bbf5-9f5a6820c125"/>
+    <ds:schemaRef ds:uri="613d7967-9229-40f2-b742-bca4e652e680"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CityPedestrianCountingSchemes.xlsx
+++ b/CityPedestrianCountingSchemes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gy17m2a\OneDrive - University of Leeds\Project\Footfall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/gy17m2a_leeds_ac_uk/Documents/Project/Footfall/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -582,13 +582,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1065,7 +1065,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1113,28 +1113,28 @@
       </c>
     </row>
     <row r="2" spans="1:48" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>136</v>
       </c>
       <c r="I2" s="17"/>
@@ -1273,7 +1273,7 @@
         <v>129</v>
       </c>
       <c r="C7" s="6">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>97</v>
@@ -1521,7 +1521,7 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:48" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1549,7 +1549,7 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:48" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>83</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:48" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1631,7 +1631,7 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="15" t="s">
         <v>109</v>
       </c>
@@ -1847,12 +1847,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2085,15 +2082,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB482118-E0ED-4E9E-8B60-33F39924365C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57578DC1-B9AA-4873-A9F4-9A5957A54955}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e8dfdbb-eb1c-41e2-bbf5-9f5a6820c125"/>
+    <ds:schemaRef ds:uri="613d7967-9229-40f2-b742-bca4e652e680"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2118,18 +2127,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57578DC1-B9AA-4873-A9F4-9A5957A54955}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB482118-E0ED-4E9E-8B60-33F39924365C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e8dfdbb-eb1c-41e2-bbf5-9f5a6820c125"/>
-    <ds:schemaRef ds:uri="613d7967-9229-40f2-b742-bca4e652e680"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CityPedestrianCountingSchemes.xlsx
+++ b/CityPedestrianCountingSchemes.xlsx
@@ -1064,8 +1064,8 @@
   <dimension ref="A1:AV17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1847,9 +1847,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2082,27 +2085,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57578DC1-B9AA-4873-A9F4-9A5957A54955}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB482118-E0ED-4E9E-8B60-33F39924365C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e8dfdbb-eb1c-41e2-bbf5-9f5a6820c125"/>
-    <ds:schemaRef ds:uri="613d7967-9229-40f2-b742-bca4e652e680"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2127,9 +2118,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB482118-E0ED-4E9E-8B60-33F39924365C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57578DC1-B9AA-4873-A9F4-9A5957A54955}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e8dfdbb-eb1c-41e2-bbf5-9f5a6820c125"/>
+    <ds:schemaRef ds:uri="613d7967-9229-40f2-b742-bca4e652e680"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>